--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P25_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P25_trail11 Features.xlsx
@@ -5335,7 +5335,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5346,29 +5346,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5389,115 +5387,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5514,72 +5502,66 @@
         <v>2.69824443315963e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.8443009386675041</v>
+        <v>1.02452400387212e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.1595297379658405</v>
+        <v>8.951501897913708e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.02452400387212e-06</v>
+        <v>-0.001209463830468548</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>8.951501897913708e-06</v>
+        <v>0.2887882301298715</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.001209463830468548</v>
+        <v>0.08323223840533685</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2887882301298715</v>
+        <v>1.782335901055144</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.08323223840533685</v>
+        <v>1.720671680853956</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.735688154428042</v>
+        <v>4.027647571682102</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.720671680853956</v>
+        <v>2.120385685938658e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.027647571682102</v>
+        <v>28098144.03475075</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.120385685938658e-14</v>
+        <v>4.14939155724332e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>28098144.03475075</v>
+        <v>16.74056581425196</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.14939155724332e-06</v>
+        <v>0.0001319457499527048</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>16.74056581425196</v>
+        <v>8.091798862267662</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001319457499527048</v>
+        <v>1.292289000323368</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.091798862267662</v>
+        <v>0.008639439423540658</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.292289000323368</v>
+        <v>2.925018369601132</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.008639439423540658</v>
+        <v>0.9496299118787955</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.925018369601132</v>
+        <v>1.735107898227759</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9496299118787955</v>
+        <v>14</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.735107898227759</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2070955099611096</v>
       </c>
     </row>
@@ -5594,72 +5576,66 @@
         <v>2.734900243730467e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.8111584950485945</v>
+        <v>1.062999050751367e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.1970694373239912</v>
+        <v>8.947522307797615e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.062999050751367e-06</v>
+        <v>-0.02648575294878553</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>8.947522307797615e-06</v>
+        <v>0.2212208649507811</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.02648575294878553</v>
+        <v>0.04955197723052022</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2212208649507811</v>
+        <v>1.78137139344631</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04955197723052022</v>
+        <v>1.690015622921101</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.737911245538544</v>
+        <v>4.021961626633403</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.690015622921101</v>
+        <v>2.12638520548802e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.021961626633403</v>
+        <v>28012494.13544034</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.12638520548802e-14</v>
+        <v>4.160586790503262e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>28012494.13544034</v>
+        <v>16.6857410434493</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.160586790503262e-06</v>
+        <v>0.0001326763817331234</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>16.6857410434493</v>
+        <v>7.093025973360685</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001326763817331234</v>
+        <v>1.444773089881074</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.093025973360685</v>
+        <v>0.006675083757741512</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.444773089881074</v>
+        <v>3.059039672128938</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.006675083757741512</v>
+        <v>0.9506806298906472</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.059039672128938</v>
+        <v>1.697773302829972</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9506806298906472</v>
+        <v>14</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.697773302829972</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1951984261045303</v>
       </c>
     </row>
@@ -5674,72 +5650,66 @@
         <v>2.778905173768594e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.8130065695526403</v>
+        <v>1.095181402825142e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.1727156003898989</v>
+        <v>8.937651193565624e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.095181402825142e-06</v>
+        <v>-0.04373542308949734</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>8.937651193565624e-06</v>
+        <v>0.1769778618860541</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.04373542308949734</v>
+        <v>0.03319575159037261</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1769778618860541</v>
+        <v>1.782433171301098</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03319575159037261</v>
+        <v>1.668496841302437</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.738677482516644</v>
+        <v>4.02362954671973</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.668496841302437</v>
+        <v>2.124622664748275e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.02362954671973</v>
+        <v>27903905.40952265</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.124622664748275e-14</v>
+        <v>4.173404371395222e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>27903905.40952265</v>
+        <v>16.54290562576476</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.173404371395222e-06</v>
+        <v>0.0001373918842971125</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>16.54290562576476</v>
+        <v>7.892796080618776</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001373918842971125</v>
+        <v>1.490612437338419</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.892796080618776</v>
+        <v>0.008558996420216302</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.490612437338419</v>
+        <v>3.055533641827695</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.008558996420216302</v>
+        <v>0.9513207993001429</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.055533641827695</v>
+        <v>1.703401983635783</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9513207993001429</v>
+        <v>14</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.703401983635783</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1911613612625773</v>
       </c>
     </row>
@@ -5754,72 +5724,66 @@
         <v>2.789515081438226e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.8379265206681322</v>
+        <v>1.119517663078636e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.02143798445064293</v>
+        <v>8.923730200744795e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.119517663078636e-06</v>
+        <v>-0.05533218175971626</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>8.923730200744795e-06</v>
+        <v>0.1535182181033697</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.05533218175971626</v>
+        <v>0.02661368464651282</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1535182181033697</v>
+        <v>1.788452293877083</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02661368464651282</v>
+        <v>1.655223480152444</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.742814340358888</v>
+        <v>4.030616857561242</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.655223480152444</v>
+        <v>2.117262733592052e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.030616857561242</v>
+        <v>28126699.02792079</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.117262733592052e-14</v>
+        <v>4.132237295703739e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>28126699.02792079</v>
+        <v>16.74990258091545</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.132237295703739e-06</v>
+        <v>0.0001330247728102787</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>16.74990258091545</v>
+        <v>9.314081102726014</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001330247728102787</v>
+        <v>1.128082768038392</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.314081102726014</v>
+        <v>0.01154017929630773</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.128082768038392</v>
+        <v>2.902785042456829</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01154017929630773</v>
+        <v>0.9514413983700869</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.902785042456829</v>
+        <v>1.733600197504646</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9514413983700869</v>
+        <v>14</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.733600197504646</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.200965928431982</v>
       </c>
     </row>
@@ -5834,72 +5798,66 @@
         <v>2.757260475429015e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.8459643389463669</v>
+        <v>1.134288410146601e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.1674570153982096</v>
+        <v>8.907129865220929e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.134288410146601e-06</v>
+        <v>-0.06384235914553883</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>8.907129865220929e-06</v>
+        <v>0.1424080510055502</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.06384235914553883</v>
+        <v>0.02434876330547537</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1424080510055502</v>
+        <v>1.778783147883663</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02434876330547537</v>
+        <v>1.633362685496</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.737037739500015</v>
+        <v>4.034591996331721</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.633362685496</v>
+        <v>2.113092662867557e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.034591996331721</v>
+        <v>26902201.72420108</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.113092662867557e-14</v>
+        <v>4.298887329136504e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>26902201.72420108</v>
+        <v>15.29305293683316</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.298887329136504e-06</v>
+        <v>0.0001346567166478305</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>15.29305293683316</v>
+        <v>9.265672355624492</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001346567166478305</v>
+        <v>1.132339015281971</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.265672355624492</v>
+        <v>0.0115606405700153</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.132339015281971</v>
+        <v>2.811306580125936</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0115606405700153</v>
+        <v>0.9516938356890489</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.811306580125936</v>
+        <v>1.738892277038169</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9516938356890489</v>
+        <v>14</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.738892277038169</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2009201710851532</v>
       </c>
     </row>
@@ -5914,72 +5872,66 @@
         <v>2.681529931841278e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.8082119875991388</v>
+        <v>1.137738772402788e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.2747136555373579</v>
+        <v>8.888842379480552e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.137738772402788e-06</v>
+        <v>-0.06995294899413441</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>8.888842379480552e-06</v>
+        <v>0.1406115057095572</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.06995294899413441</v>
+        <v>0.02466446035733515</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1406115057095572</v>
+        <v>1.778882449445917</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02466446035733515</v>
+        <v>1.646237148193229</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.737554458242794</v>
+        <v>4.014682457130776</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.646237148193229</v>
+        <v>2.13410305149964e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.014682457130776</v>
+        <v>26611596.15898396</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.13410305149964e-14</v>
+        <v>4.345004577103877e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>26611596.15898396</v>
+        <v>15.11322803681992</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.345004577103877e-06</v>
+        <v>0.0001338152900743217</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>15.11322803681992</v>
+        <v>8.330180468724491</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001338152900743217</v>
+        <v>1.211433626526557</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.330180468724491</v>
+        <v>0.009285698116045116</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.211433626526557</v>
+        <v>2.922509185373631</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.009285698116045116</v>
+        <v>0.9535615455998768</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.922509185373631</v>
+        <v>1.712604876892371</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9535615455998768</v>
+        <v>14</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.712604876892371</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1961939821631792</v>
       </c>
     </row>
@@ -5994,72 +5946,66 @@
         <v>2.572948818498291e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.7147778943989899</v>
+        <v>1.134362981914159e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.2112029211111488</v>
+        <v>8.87000519808936e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.134362981914159e-06</v>
+        <v>-0.07281079207995059</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>8.87000519808936e-06</v>
+        <v>0.1464047444691159</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.07281079207995059</v>
+        <v>0.02673597529921386</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1464047444691159</v>
+        <v>1.754732076574526</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02673597529921386</v>
+        <v>1.703777623993294</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.709364559282297</v>
+        <v>3.969569923754012</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.703777623993294</v>
+        <v>2.182885090245116e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.969569923754012</v>
+        <v>25956939.85237835</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.182885090245116e-14</v>
+        <v>4.416549781800488e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>25956939.85237835</v>
+        <v>14.7074661003972</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.416549781800488e-06</v>
+        <v>0.0001390664036055009</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>14.7074661003972</v>
+        <v>7.827640961427762</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001390664036055009</v>
+        <v>1.331644149030529</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.827640961427762</v>
+        <v>0.008520871539182732</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.331644149030529</v>
+        <v>2.971458634445462</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.008520871539182732</v>
+        <v>0.9545141583935843</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.971458634445462</v>
+        <v>1.731948975402413</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9545141583935843</v>
+        <v>15</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.731948975402413</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1900642428735984</v>
       </c>
     </row>
@@ -6074,72 +6020,66 @@
         <v>2.450711774728651e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.5785712763157012</v>
+        <v>1.096485349955693e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.02027001412048168</v>
+        <v>8.851612296526209e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.096485349955693e-06</v>
+        <v>-0.0733836499047115</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>8.851612296526209e-06</v>
+        <v>0.1538766607669897</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.0733836499047115</v>
+        <v>0.02906083105356944</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1538766607669897</v>
+        <v>1.748586743542067</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02906083105356944</v>
+        <v>1.664446043008525</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.700580679010232</v>
+        <v>3.912562591123594</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.664446043008525</v>
+        <v>2.246959222144155e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.912562591123594</v>
+        <v>25238615.34050006</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.246959222144155e-14</v>
+        <v>4.537118769947143e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>25238615.34050006</v>
+        <v>14.31285396582183</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.537118769947143e-06</v>
+        <v>0.0001602930730455496</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>14.31285396582183</v>
+        <v>8.506986882900598</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001602930730455496</v>
+        <v>1.440424485282674</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.506986882900598</v>
+        <v>0.01160022148432248</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.440424485282674</v>
+        <v>2.902725407710538</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01160022148432248</v>
+        <v>0.9547733470793003</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.902725407710538</v>
+        <v>1.749570851413971</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9547733470793003</v>
+        <v>15</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.749570851413971</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1853401497855335</v>
       </c>
     </row>
@@ -6154,72 +6094,66 @@
         <v>2.333622924123526e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.4208211261182728</v>
+        <v>1.032570204031505e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.3533416346929044</v>
+        <v>8.834121960877119e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.032570204031505e-06</v>
+        <v>-0.07266823597415807</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>8.834121960877119e-06</v>
+        <v>0.1597371099202486</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.07266823597415807</v>
+        <v>0.0307906304812641</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1597371099202486</v>
+        <v>1.74777784111366</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.0307906304812641</v>
+        <v>1.598494252787674</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.702313341727843</v>
+        <v>3.991021135766203</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.598494252787674</v>
+        <v>2.15948271338193e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.991021135766203</v>
+        <v>27050717.40473445</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.15948271338193e-14</v>
+        <v>4.233560667988251e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>27050717.40473445</v>
+        <v>15.80182714170691</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.233560667988251e-06</v>
+        <v>0.0001859902255662313</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>15.80182714170691</v>
+        <v>10.937859073903</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001859902255662313</v>
+        <v>1.199034988550729</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.937859073903</v>
+        <v>0.02225126818682667</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.199034988550729</v>
+        <v>2.690769037527698</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.02225126818682667</v>
+        <v>0.9553221708028129</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.690769037527698</v>
+        <v>1.709458216097047</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9553221708028129</v>
+        <v>17</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.709458216097047</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2038192900264121</v>
       </c>
     </row>
@@ -6234,72 +6168,66 @@
         <v>2.234646216012742e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.2720747952051214</v>
+        <v>9.501642616295476e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.6883471045115597</v>
+        <v>8.81780332749223e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>9.501642616295476e-07</v>
+        <v>-0.06996409280408641</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>8.81780332749223e-06</v>
+        <v>0.1625576133915116</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.06996409280408641</v>
+        <v>0.03131051094232795</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1625576133915116</v>
+        <v>1.751912088358887</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.03131051094232795</v>
+        <v>1.631575783940616</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.710501481877906</v>
+        <v>3.972143096371501</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.631575783940616</v>
+        <v>1.926880169328649e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.972143096371501</v>
+        <v>30130998.60389003</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.926880169328649e-14</v>
+        <v>3.804062200266548e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>30130998.60389003</v>
+        <v>17.49370335604285</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>3.804062200266548e-06</v>
+        <v>0.000176865069913899</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>17.49370335604285</v>
+        <v>12.24470810661303</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.000176865069913899</v>
+        <v>1.054935103783797</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>12.24470810661303</v>
+        <v>0.02651788870510823</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.054935103783797</v>
+        <v>2.679847475401332</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.02651788870510823</v>
+        <v>0.9557549370344692</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.679847475401332</v>
+        <v>1.744100778341835</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9557549370344692</v>
+        <v>26</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.744100778341835</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2353684854272966</v>
       </c>
     </row>
@@ -6314,72 +6242,66 @@
         <v>2.159303743111644e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1655041013049444</v>
+        <v>8.617737291201676e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.9342121809278083</v>
+        <v>8.802945480199705e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>8.617737291201676e-07</v>
+        <v>-0.06509049251828934</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>8.802945480199705e-06</v>
+        <v>0.1628915734600455</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.06509049251828934</v>
+        <v>0.03076025069670553</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1628915734600455</v>
+        <v>1.826418006412878</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.03076025069670553</v>
+        <v>1.639640037445161</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.800570056019576</v>
+        <v>4.046022052781913</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.639640037445161</v>
+        <v>1.857154295566108e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.046022052781913</v>
+        <v>30797331.82560457</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.857154295566108e-14</v>
+        <v>3.805927763543884e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>30797331.82560457</v>
+        <v>17.61465623136349</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.805927763543884e-06</v>
+        <v>0.0001380061085158668</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>17.61465623136349</v>
+        <v>9.670002746303886</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001380061085158668</v>
+        <v>1.178448116656162</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.670002746303886</v>
+        <v>0.01290480673059019</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.178448116656162</v>
+        <v>3.008875214653536</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01290480673059019</v>
+        <v>0.9597422824780653</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.008875214653536</v>
+        <v>1.599331339901084</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9597422824780653</v>
+        <v>25</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.599331339901084</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.255562892793741</v>
       </c>
     </row>
@@ -6394,72 +6316,66 @@
         <v>2.104094252696656e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.1148209697019396</v>
+        <v>7.792732127326574e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.072452579228165</v>
+        <v>8.789749867269022e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>7.792732127326574e-07</v>
+        <v>-0.05857618503104363</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>8.789749867269022e-06</v>
+        <v>0.1630508436795905</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05857618503104363</v>
+        <v>0.03000719126728656</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1630508436795905</v>
+        <v>1.836443055690645</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.03000719126728656</v>
+        <v>1.64142440779219</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.811137838027628</v>
+        <v>4.734990599252869</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.64142440779219</v>
+        <v>1.084414215861255e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.734990599252869</v>
+        <v>52779507.52070703</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.084414215861255e-14</v>
+        <v>2.233925382093182e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>52779507.52070703</v>
+        <v>30.20827104270211</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.233925382093182e-06</v>
+        <v>0.0001302664473298839</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>30.20827104270211</v>
+        <v>7.999650943221455</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001302664473298839</v>
+        <v>1.242138408228697</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.999650943221455</v>
+        <v>0.008336325118800995</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.242138408228697</v>
+        <v>3.058913897983646</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.008336325118800995</v>
+        <v>0.9607710767760923</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.058913897983646</v>
+        <v>1.59163906843848</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9607710767760923</v>
+        <v>25</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.59163906843848</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2586703190776788</v>
       </c>
     </row>
@@ -6474,72 +6390,66 @@
         <v>2.062055248754926e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.114026172432929</v>
+        <v>7.074933267955928e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.126950898908547</v>
+        <v>8.778303745788925e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>7.074933267955928e-07</v>
+        <v>-0.05127493906766858</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>8.778303745788925e-06</v>
+        <v>0.1644243668654525</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05127493906766858</v>
+        <v>0.02965596381820521</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1644243668654525</v>
+        <v>1.85988179333311</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02965596381820521</v>
+        <v>1.837849365953342</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.846515077323061</v>
+        <v>3.798106533819902</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.837849365953342</v>
+        <v>6.603067491785243e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.798106533819902</v>
+        <v>86552054.8478732</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>6.603067491785243e-15</v>
+        <v>1.365125113131635e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>86552054.8478732</v>
+        <v>49.46528348235374</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.365125113131635e-06</v>
+        <v>0.0001421688209462001</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>49.46528348235374</v>
+        <v>7.687674722382853</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001421688209462001</v>
+        <v>1.394355580850293</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>7.687674722382853</v>
+        <v>0.008402226030242082</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.394355580850293</v>
+        <v>3.013783028619973</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.008402226030242082</v>
+        <v>0.9616083035724802</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.013783028619973</v>
+        <v>1.552420290894225</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9616083035724802</v>
+        <v>25</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.552420290894225</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2400764857189238</v>
       </c>
     </row>
@@ -6554,72 +6464,66 @@
         <v>2.026901172453896e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.1475259661316562</v>
+        <v>6.629691805565759e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.122977772102379</v>
+        <v>8.768605631693182e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>6.629691805565759e-07</v>
+        <v>-0.04347663394018139</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>8.768605631693182e-06</v>
+        <v>0.1683677084828798</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.04347663394018139</v>
+        <v>0.03022896603728641</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1683677084828798</v>
+        <v>1.865240150620233</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03022896603728641</v>
+        <v>1.93194742084194</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.847338548010598</v>
+        <v>4.349014759720246</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.93194742084194</v>
+        <v>6.402922650562285e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.349014759720246</v>
+        <v>87619692.75369486</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>6.402922650562285e-15</v>
+        <v>1.343228265117727e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>87619692.75369486</v>
+        <v>49.15658537656694</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.343228265117727e-06</v>
+        <v>0.0001550149620992232</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>49.15658537656694</v>
+        <v>8.341683645185933</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001550149620992232</v>
+        <v>1.354911716398931</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.341683645185933</v>
+        <v>0.01078651245365098</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.354911716398931</v>
+        <v>2.916243269473516</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01078651245365098</v>
+        <v>0.9619953379305962</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.916243269473516</v>
+        <v>1.57869417925845</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9619953379305962</v>
+        <v>25</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.57869417925845</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.227855604934224</v>
       </c>
     </row>
@@ -6634,72 +6538,66 @@
         <v>1.993168315670988e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.1971998174443423</v>
+        <v>6.629691805565759e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.074855979075581</v>
+        <v>8.760691786223679e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>6.629691805565759e-07</v>
+        <v>-0.03518882245681895</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>8.760691786223679e-06</v>
+        <v>0.1762818584410146</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.03518882245681895</v>
+        <v>0.03230317096076816</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1762818584410146</v>
+        <v>1.852732464018067</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.03230317096076816</v>
+        <v>1.985079588445312</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.83354660067267</v>
+        <v>4.36227847332988</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.985079588445312</v>
+        <v>6.364045068007653e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.36227847332988</v>
+        <v>85013332.54954325</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>6.364045068007653e-15</v>
+        <v>1.38208672637268e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>85013332.54954325</v>
+        <v>45.99465106845606</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.38208672637268e-06</v>
+        <v>0.0001460086684967995</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>45.99465106845606</v>
+        <v>9.606575043526396</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001460086684967995</v>
+        <v>1.156101048244517</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.606575043526396</v>
+        <v>0.01347459745712608</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.156101048244517</v>
+        <v>2.873606004815204</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01347459745712608</v>
+        <v>0.9631321521244639</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.873606004815204</v>
+        <v>1.574665771916597</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9631321521244639</v>
+        <v>12</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.574665771916597</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2470114907388902</v>
       </c>
     </row>
@@ -6714,72 +6612,66 @@
         <v>1.958620513025419e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.2446387795397102</v>
+        <v>6.629691805565759e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.9936171508370584</v>
+        <v>8.754568075540563e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>6.629691805565759e-07</v>
+        <v>-0.02663033659802617</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>8.754568075540563e-06</v>
+        <v>0.1878489560702806</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.02663033659802617</v>
+        <v>0.0359823087008893</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1878489560702806</v>
+        <v>1.836517382080446</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.0359823087008893</v>
+        <v>2.066573890427325</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.814621739757251</v>
+        <v>4.25782816562863</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.066573890427325</v>
+        <v>6.680112208768082e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.25782816562863</v>
+        <v>79682767.30489618</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>6.680112208768082e-15</v>
+        <v>1.464856526842924e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>79682767.30489618</v>
+        <v>42.41432639984806</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.464856526842924e-06</v>
+        <v>0.0001267865723010525</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>42.41432639984806</v>
+        <v>9.353224615138767</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001267865723010525</v>
+        <v>1.113007384797226</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.353224615138767</v>
+        <v>0.01109164570407177</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.113007384797226</v>
+        <v>2.938255936425569</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01109164570407177</v>
+        <v>0.9610277753365203</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.938255936425569</v>
+        <v>1.556381376226923</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9610277753365203</v>
+        <v>12</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.556381376226923</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2684724680577346</v>
       </c>
     </row>
@@ -6794,72 +6686,66 @@
         <v>1.925104856775638e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.2750163393751623</v>
+        <v>6.629691805565759e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.9018539842056397</v>
+        <v>8.750198015497602e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>6.629691805565759e-07</v>
+        <v>-0.01878818294266999</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>8.750198015497602e-06</v>
+        <v>0.1998052204392044</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.01878818294266999</v>
+        <v>0.04026764043771982</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1998052204392044</v>
+        <v>1.725021009064303</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.04026764043771982</v>
+        <v>1.548744996352253</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.672956560678123</v>
+        <v>5.987153581029622</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.548744996352253</v>
+        <v>1.675708400771027e-14</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>5.987153581029622</v>
+        <v>33928331.18640723</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.675708400771027e-14</v>
+        <v>3.290694349726413e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>33928331.18640723</v>
+        <v>19.28960988186783</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>3.290694349726413e-06</v>
+        <v>0.0001387045910299847</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>19.28960988186783</v>
+        <v>7.378522918025824</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001387045910299847</v>
+        <v>1.903428603679072</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>7.378522918025824</v>
+        <v>0.007551438630280263</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.903428603679072</v>
+        <v>3.213412751634805</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.007551438630280263</v>
+        <v>0.9547502189361157</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.213412751634805</v>
+        <v>1.704406053518188</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9547502189361157</v>
+        <v>13</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.704406053518188</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2249095420554369</v>
       </c>
     </row>
@@ -6874,72 +6760,66 @@
         <v>1.89591969001124e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.2903755602782493</v>
+        <v>6.629691805565759e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.8207668563757395</v>
+        <v>8.747065513402188e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>6.629691805565759e-07</v>
+        <v>-0.01455611236629924</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>8.747065513402188e-06</v>
+        <v>0.2045742731421362</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.01455611236629924</v>
+        <v>0.04206106104987119</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.2045742731421362</v>
+        <v>1.708999123459768</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.04206106104987119</v>
+        <v>1.506692382592898</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.651796643884232</v>
+        <v>4.056235138859697</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.506692382592898</v>
+        <v>4.461809281470168e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.056235138859697</v>
+        <v>12941717.43304678</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>4.461809281470168e-14</v>
+        <v>8.596268982160012e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>12941717.43304678</v>
+        <v>7.472997365465992</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>8.596268982160012e-06</v>
+        <v>0.0001962548617423916</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>7.472997365465992</v>
+        <v>8.370686612226798</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001962548617423916</v>
+        <v>2.117802195536238</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.370686612226798</v>
+        <v>0.01375126304765534</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>2.117802195536238</v>
+        <v>3.02638950306413</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01375126304765534</v>
+        <v>0.9529185335613637</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.02638950306413</v>
+        <v>1.808174238052407</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9529185335613637</v>
+        <v>13</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.808174238052407</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1743112345808814</v>
       </c>
     </row>
@@ -6954,72 +6834,66 @@
         <v>1.872776107413014e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.3062416399812066</v>
+        <v>6.629691805565759e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.7445400683787002</v>
+        <v>8.74451760445268e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>6.629691805565759e-07</v>
+        <v>-0.01278273961963992</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>8.74451760445268e-06</v>
+        <v>0.2059244053600424</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.01278273961963992</v>
+        <v>0.04256192048088651</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.2059244053600424</v>
+        <v>1.684778758048639</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.04256192048088651</v>
+        <v>1.514675979703952</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.617557035020216</v>
+        <v>3.643116338660683</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.514675979703952</v>
+        <v>5.531095642410833e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.643116338660683</v>
+        <v>10835866.78136456</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>5.531095642410833e-14</v>
+        <v>1.023472468148959e-05</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>10835866.78136456</v>
+        <v>6.494391751953094</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.023472468148959e-05</v>
+        <v>0.0001667249106330075</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>6.494391751953094</v>
+        <v>9.830503097352116</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001667249106330075</v>
+        <v>1.376171903068453</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.830503097352116</v>
+        <v>0.01611209381767371</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.376171903068453</v>
+        <v>2.950912546242761</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01611209381767371</v>
+        <v>0.952199909188002</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.950912546242761</v>
+        <v>1.827471800410869</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.952199909188002</v>
+        <v>13</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.827471800410869</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.168199910892374</v>
       </c>
     </row>
@@ -7034,72 +6908,66 @@
         <v>1.856212787863165e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.3306838523862497</v>
+        <v>6.629691805565759e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.6712213688729332</v>
+        <v>8.742222370973474e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>6.629691805565759e-07</v>
+        <v>-0.01199736488080005</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>8.742222370973474e-06</v>
+        <v>0.2067328117095625</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.01199736488080005</v>
+        <v>0.04287280893913928</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.2067328117095625</v>
+        <v>1.675761859554066</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.04287280893913928</v>
+        <v>1.505027655597244</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.598499449070097</v>
+        <v>3.641485507248088</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.505027655597244</v>
+        <v>5.536050930223574e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.641485507248088</v>
+        <v>11069605.82132402</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>5.536050930223574e-14</v>
+        <v>1.005621734207107e-05</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>11069605.82132402</v>
+        <v>6.783664947413088</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.005621734207107e-05</v>
+        <v>0.0001479299669515703</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>6.783664947413088</v>
+        <v>10.70496377640085</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001479299669515703</v>
+        <v>1.104221298030593</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>10.70496377640085</v>
+        <v>0.01695221939451216</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.104221298030593</v>
+        <v>2.803191490648373</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01695221939451216</v>
+        <v>0.9530856054282397</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.803191490648373</v>
+        <v>1.816817198881699</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9530856054282397</v>
+        <v>13</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.816817198881699</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1791214314571642</v>
       </c>
     </row>
@@ -7114,72 +6982,66 @@
         <v>1.845999969114346e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.3621864881658486</v>
+        <v>6.629691805565759e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.6109055030248101</v>
+        <v>8.740055853147349e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>6.629691805565759e-07</v>
+        <v>-0.01149055868141634</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>8.740055853147349e-06</v>
+        <v>0.20716115331386</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.01149055868141634</v>
+        <v>0.0430388333954692</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.20716115331386</v>
+        <v>1.670646406487751</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.0430388333954692</v>
+        <v>1.49227537442659</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.589185382307593</v>
+        <v>3.695484641171202</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.49227537442659</v>
+        <v>5.3754452799982e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.695484641171202</v>
+        <v>11278196.72596264</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>5.3754452799982e-14</v>
+        <v>9.840759862839932e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>11278196.72596264</v>
+        <v>6.837443910697916</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>9.840759862839932e-06</v>
+        <v>0.0001425930082449861</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>6.837443910697916</v>
+        <v>9.884835074006459</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001425930082449861</v>
+        <v>1.173239629503439</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.884835074006459</v>
+        <v>0.01393275776505418</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.173239629503439</v>
+        <v>2.806352592578885</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01393275776505418</v>
+        <v>0.9521890600655796</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.806352592578885</v>
+        <v>1.824048766245548</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9521890600655796</v>
+        <v>18</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.824048766245548</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1815376880825912</v>
       </c>
     </row>
@@ -7194,72 +7056,66 @@
         <v>1.841380978108477e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.3954930556951218</v>
+        <v>6.629691805565759e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.5715912512197079</v>
+        <v>8.737998854043086e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>6.629691805565759e-07</v>
+        <v>-0.01083742683760582</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>8.737998854043086e-06</v>
+        <v>0.2069210985841966</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.01083742683760582</v>
+        <v>0.04292733248326153</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.2069210985841966</v>
+        <v>1.696949678549951</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.04292733248326153</v>
+        <v>1.582625758184724</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.618439892996482</v>
+        <v>3.697762500253955</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.582625758184724</v>
+        <v>5.368824662538839e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.697762500253955</v>
+        <v>11313184.33591798</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>5.368824662538839e-14</v>
+        <v>9.877325001954237e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>11313184.33591798</v>
+        <v>6.871458815698172</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>9.877325001954237e-06</v>
+        <v>0.0001409355649625297</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>6.871458815698172</v>
+        <v>8.329484646195693</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001409355649625297</v>
+        <v>1.288167574416055</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.329484646195693</v>
+        <v>0.009778153817277929</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.288167574416055</v>
+        <v>2.956469921498719</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.009778153817277929</v>
+        <v>0.9522223082615487</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.956469921498719</v>
+        <v>1.826289999687923</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9522223082615487</v>
+        <v>17</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.826289999687923</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.172657474869587</v>
       </c>
     </row>
@@ -7274,72 +7130,66 @@
         <v>1.841114089606113e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.4256913502803043</v>
+        <v>6.629691805565759e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.5532020397468327</v>
+        <v>8.736092893800151e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>6.629691805565759e-07</v>
+        <v>-0.009896029579781543</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>8.736092893800151e-06</v>
+        <v>0.2060928233308552</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.009896029579781543</v>
+        <v>0.04256796828925551</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.2060928233308552</v>
+        <v>1.70001785931198</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.04256796828925551</v>
+        <v>1.619075546790318</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.62275246205898</v>
+        <v>3.681934721621889</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.619075546790318</v>
+        <v>5.415082525285246e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.681934721621889</v>
+        <v>11179927.55507284</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>5.415082525285246e-14</v>
+        <v>9.994448348579425e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>11179927.55507284</v>
+        <v>6.768353893398897</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>9.994448348579425e-06</v>
+        <v>0.0001555246133821134</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>6.768353893398897</v>
+        <v>7.795036392009153</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001555246133821134</v>
+        <v>1.568042482605219</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>7.795036392009153</v>
+        <v>0.009450078683755945</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.568042482605219</v>
+        <v>2.966187446204141</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.009450078683755945</v>
+        <v>0.9510501810615434</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.966187446204141</v>
+        <v>1.79633173819921</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9510501810615434</v>
+        <v>17</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.79633173819921</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1580739943761731</v>
       </c>
     </row>
@@ -7354,72 +7204,66 @@
         <v>1.843812675567417e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.4506599416542318</v>
+        <v>6.629691805565759e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.5503122924517152</v>
+        <v>8.734352829954104e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>6.629691805565759e-07</v>
+        <v>-0.009076660004583906</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>8.734352829954104e-06</v>
+        <v>0.2052041317971439</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.009076660004583906</v>
+        <v>0.04218864941212738</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.2052041317971439</v>
+        <v>1.709047511367944</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.04218864941212738</v>
+        <v>1.562309281447706</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.63278898999979</v>
+        <v>3.675158834946804</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.562309281447706</v>
+        <v>5.435068496866603e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.675158834946804</v>
+        <v>11036511.99079656</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>5.435068496866603e-14</v>
+        <v>1.015130641826289e-05</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>11036511.99079656</v>
+        <v>6.620163275097114</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>1.015130641826289e-05</v>
+        <v>0.0001642096360549816</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>6.620163275097114</v>
+        <v>9.346862191620183</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001642096360549816</v>
+        <v>1.301502242963726</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.346862191620183</v>
+        <v>0.01434598319324115</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.301502242963726</v>
+        <v>2.84639724611779</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01434598319324115</v>
+        <v>0.9525253129225143</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.84639724611779</v>
+        <v>1.809639072675228</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9525253129225143</v>
+        <v>15</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.809639072675228</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1541281323861078</v>
       </c>
     </row>
@@ -7434,72 +7278,66 @@
         <v>1.848334544069381e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.4707690264386085</v>
+        <v>6.629691805565759e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.5567336284404507</v>
+        <v>8.732744465008744e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>6.629691805565759e-07</v>
+        <v>-0.008355531777093901</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>8.732744465008744e-06</v>
+        <v>0.2043634251522097</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.008355531777093901</v>
+        <v>0.04183337848471777</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.2043634251522097</v>
+        <v>1.701496108328773</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.04183337848471777</v>
+        <v>1.510655200867841</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.627741757981593</v>
+        <v>3.648361494078427</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.510655200867841</v>
+        <v>5.515203246983506e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.648361494078427</v>
+        <v>10641345.14795126</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>5.515203246983506e-14</v>
+        <v>1.047970748661265e-05</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>10641345.14795126</v>
+        <v>6.245318347943754</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1.047970748661265e-05</v>
+        <v>0.0001638962233803457</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>6.245318347943754</v>
+        <v>11.16756860155842</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001638962233803457</v>
+        <v>1.095202907986845</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>11.16756860155842</v>
+        <v>0.02044025005075118</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.095202907986845</v>
+        <v>2.658245716596436</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.02044025005075118</v>
+        <v>0.9523636558607155</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.658245716596436</v>
+        <v>1.836910867201292</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9523636558607155</v>
+        <v>6</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.836910867201292</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1628388420406564</v>
       </c>
     </row>
@@ -7514,72 +7352,66 @@
         <v>1.853388947293295e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.4871398941333272</v>
+        <v>6.629691805565759e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.5663837164927328</v>
+        <v>8.731290558214152e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>6.629691805565759e-07</v>
+        <v>-0.007268361067226265</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>8.731290558214152e-06</v>
+        <v>0.2036644421814919</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.007268361067226265</v>
+        <v>0.04153182375592483</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.2036644421814919</v>
+        <v>1.700861673433357</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.04153182375592483</v>
+        <v>1.483256998827421</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.62555970037604</v>
+        <v>3.611060402534037</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.483256998827421</v>
+        <v>5.629732279930576e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.611060402534037</v>
+        <v>10418090.11508131</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>5.629732279930576e-14</v>
+        <v>1.069917217604025e-05</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>10418090.11508131</v>
+        <v>6.110320098401979</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>1.069917217604025e-05</v>
+        <v>0.0001517468138065679</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>6.110320098401979</v>
+        <v>10.43816242361674</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001517468138065679</v>
+        <v>1.122954892154177</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>10.43816242361674</v>
+        <v>0.01653360972568538</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.122954892154177</v>
+        <v>2.737081282128581</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01653360972568538</v>
+        <v>0.9524387459139431</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.737081282128581</v>
+        <v>1.82763752102832</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9524387459139431</v>
+        <v>6</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.82763752102832</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1692912615834621</v>
       </c>
     </row>
@@ -7594,72 +7426,66 @@
         <v>1.85745500763335e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.5009527037316756</v>
+        <v>6.629691805565759e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.5734865179814541</v>
+        <v>8.730081710509013e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>6.629691805565759e-07</v>
+        <v>-0.005765493157814679</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>8.730081710509013e-06</v>
+        <v>0.2036019365615073</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.005765493157814679</v>
+        <v>0.0414859466436082</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.2036019365615073</v>
+        <v>1.681686708886773</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.0414859466436082</v>
+        <v>1.499665995629543</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.606254494303552</v>
+        <v>3.610402578449152</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.499665995629543</v>
+        <v>5.631783968509078e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.610402578449152</v>
+        <v>10407689.71164867</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>5.631783968509078e-14</v>
+        <v>1.063652181967679e-05</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>10407689.71164867</v>
+        <v>6.100348683822434</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1.063652181967679e-05</v>
+        <v>0.0001438798240953342</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>6.100348683822434</v>
+        <v>8.57623720156624</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001438798240953342</v>
+        <v>1.260946875052958</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.57623720156624</v>
+        <v>0.010582626453947</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.260946875052958</v>
+        <v>2.922748918803732</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.010582626453947</v>
+        <v>0.9495402196579098</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.922748918803732</v>
+        <v>1.80370522553493</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9495402196579098</v>
+        <v>6</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.80370522553493</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1682504019553097</v>
       </c>
     </row>
@@ -7674,72 +7500,66 @@
         <v>1.860036009608659e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.5141023223627388</v>
+        <v>6.629691805565759e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.575290048136357</v>
+        <v>8.729058385552993e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>6.629691805565759e-07</v>
+        <v>-0.005668445957290928</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>8.729058385552993e-06</v>
+        <v>0.2033364105530244</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.005668445957290928</v>
+        <v>0.04137603492174091</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.2033364105530244</v>
+        <v>1.66520390870697</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.04137603492174091</v>
+        <v>1.496036492194408</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.584380988665951</v>
+        <v>3.62046061812015</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.496036492194408</v>
+        <v>5.600535997649515e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.62046061812015</v>
+        <v>10643047.84051087</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>5.600535997649515e-14</v>
+        <v>1.039892021779648e-05</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>10643047.84051087</v>
+        <v>6.343977319264993</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>1.039892021779648e-05</v>
+        <v>0.0001507967800146345</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>6.343977319264993</v>
+        <v>7.854848447321652</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001507967800146345</v>
+        <v>1.440218121202103</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>7.854848447321652</v>
+        <v>0.009303956866131849</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.440218121202103</v>
+        <v>2.931857358057065</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.009303956866131849</v>
+        <v>0.9494693176579406</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.931857358057065</v>
+        <v>1.836071208110075</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9494693176579406</v>
+        <v>7</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.836071208110075</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1626454366967951</v>
       </c>
     </row>
@@ -7754,72 +7574,66 @@
         <v>1.861751860015016e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.5324687789496227</v>
+        <v>6.629691805565759e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.569702705203234</v>
+        <v>8.727783665752416e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>6.629691805565759e-07</v>
+        <v>-0.008345234391580169</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>8.727783665752416e-06</v>
+        <v>0.2015521180469749</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.008345234391580169</v>
+        <v>0.04068992120820384</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.2015521180469749</v>
+        <v>1.670322195412776</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.04068992120820384</v>
+        <v>1.478049521663355</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.589682307906451</v>
+        <v>3.702205522599962</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.478049521663355</v>
+        <v>5.3551493720273e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.702205522599962</v>
+        <v>11654358.51280596</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>5.3551493720273e-14</v>
+        <v>9.6184364336148e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>11654358.51280596</v>
+        <v>7.273581957245856</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>9.6184364336148e-06</v>
+        <v>0.0001623420802572105</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>7.273581957245856</v>
+        <v>8.841709727513578</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001623420802572105</v>
+        <v>1.309258641020331</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>8.841709727513578</v>
+        <v>0.01269122701505237</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.309258641020331</v>
+        <v>2.789659827659278</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01269122701505237</v>
+        <v>0.949019176330806</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.789659827659278</v>
+        <v>1.812056204612983</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.949019176330806</v>
+        <v>7</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.812056204612983</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1594603083427338</v>
       </c>
     </row>
@@ -7834,72 +7648,66 @@
         <v>1.862066494046826e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.5611379956255252</v>
+        <v>6.629691805565759e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.5495075261875919</v>
+        <v>8.725926013410564e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>6.629691805565759e-07</v>
+        <v>-0.01140047128141721</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>8.725926013410564e-06</v>
+        <v>0.1997486762131118</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.01140047128141721</v>
+        <v>0.04002741875933018</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1997486762131118</v>
+        <v>1.66796172542004</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.04002741875933018</v>
+        <v>1.501242738399865</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.58388357279057</v>
+        <v>3.775372156465649</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.501242738399865</v>
+        <v>5.149595311385048e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.775372156465649</v>
+        <v>12218024.59376997</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>5.149595311385048e-14</v>
+        <v>9.16426620055171e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>12218024.59376997</v>
+        <v>7.68732231648919</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>9.16426620055171e-06</v>
+        <v>0.0001770638596697008</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>7.68732231648919</v>
+        <v>11.00779795593493</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001770638596697008</v>
+        <v>1.105734326226721</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>11.00779795593493</v>
+        <v>0.02145511398281186</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.105734326226721</v>
+        <v>2.513680823984155</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.02145511398281186</v>
+        <v>0.9475410114421593</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.513680823984155</v>
+        <v>1.798837977231568</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9475410114421593</v>
+        <v>10</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.798837977231568</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1625636271145433</v>
       </c>
     </row>
@@ -7914,72 +7722,66 @@
         <v>1.859716561209644e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.5982073406742182</v>
+        <v>6.629691805565759e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.5092011636649953</v>
+        <v>8.72362822047812e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>6.629691805565759e-07</v>
+        <v>-0.0130372839029806</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>8.72362822047812e-06</v>
+        <v>0.1989386717874207</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.0130372839029806</v>
+        <v>0.03974382593048329</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1989386717874207</v>
+        <v>1.671027814182865</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.03974382593048329</v>
+        <v>1.517379918381923</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.589181501165419</v>
+        <v>3.805859840465478</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.517379918381923</v>
+        <v>5.067421819691802e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.805859840465478</v>
+        <v>12482391.41760681</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>5.067421819691802e-14</v>
+        <v>8.968403695400347e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>12482391.41760681</v>
+        <v>7.895554776768423</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>8.968403695400347e-06</v>
+        <v>0.0001664158159989752</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>7.895554776768423</v>
+        <v>11.13553013990518</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001664158159989752</v>
+        <v>1.052726135979912</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>11.13553013990518</v>
+        <v>0.02063556642542805</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.052726135979912</v>
+        <v>2.578182056912143</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.02063556642542805</v>
+        <v>0.9497568681066194</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.578182056912143</v>
+        <v>1.830366918424479</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9497568681066194</v>
+        <v>10</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.830366918424479</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1726409845854244</v>
       </c>
     </row>
@@ -8356,7 +8158,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.446912226050064</v>
+        <v>1.434262718600979</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.369807335375842</v>
@@ -8445,7 +8247,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.436906132198063</v>
+        <v>1.398604168358937</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.000406221068038</v>
@@ -8534,7 +8336,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.407200175774828</v>
+        <v>1.397194580944805</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.020277060483541</v>
@@ -8623,7 +8425,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.413066472936613</v>
+        <v>1.404927808864654</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.029633141130505</v>
@@ -8712,7 +8514,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.414857292273733</v>
+        <v>1.399628250396139</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.037196057448994</v>
@@ -8801,7 +8603,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.411258438075216</v>
+        <v>1.398534010793751</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.045868377268585</v>
@@ -8890,7 +8692,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.403442386347141</v>
+        <v>1.389773742882727</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.030153108985195</v>
@@ -8979,7 +8781,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.390239901627066</v>
+        <v>1.377995461832102</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.050540396956039</v>
@@ -9068,7 +8870,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.391709947510691</v>
+        <v>1.375782754915912</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.062603208751231</v>
@@ -9157,7 +8959,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.387885370501512</v>
+        <v>1.376723632627399</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.911856033187811</v>
@@ -9246,7 +9048,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.389582512604748</v>
+        <v>1.376257375908684</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.02878231348358</v>
@@ -9335,7 +9137,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.378788568537895</v>
+        <v>1.366231507823195</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.024168647816354</v>
@@ -9424,7 +9226,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.388257944976485</v>
+        <v>1.375809122963867</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.95472987956529</v>
@@ -9513,7 +9315,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.391036876269821</v>
+        <v>1.379407304395088</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.019325891962134</v>
@@ -9602,7 +9404,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.42614255835258</v>
+        <v>1.409546939564442</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.958818441615287</v>
@@ -9691,7 +9493,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.423980744034618</v>
+        <v>1.403746790755085</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.021172417998454</v>
@@ -9780,7 +9582,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.465824382598738</v>
+        <v>1.446668443559645</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.120872689562046</v>
@@ -9869,7 +9671,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.445950005221692</v>
+        <v>1.425164390458973</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.400549241288993</v>
@@ -9958,7 +9760,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.443126552572043</v>
+        <v>1.422521969739548</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.351063976360594</v>
@@ -10047,7 +9849,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.468442171534397</v>
+        <v>1.442131550049743</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.270422927545296</v>
@@ -10136,7 +9938,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.459875514967383</v>
+        <v>1.43164931737059</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.493431744426337</v>
@@ -10225,7 +10027,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.455768170398054</v>
+        <v>1.423631732549355</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.190755537393239</v>
@@ -10314,7 +10116,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.447321827040355</v>
+        <v>1.42186615276328</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.324741239311698</v>
@@ -10403,7 +10205,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.436802706348613</v>
+        <v>1.412469350909402</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.483192093345983</v>
@@ -10492,7 +10294,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.462703656388662</v>
+        <v>1.433953804072641</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.386486847078981</v>
@@ -10581,7 +10383,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.473746072826077</v>
+        <v>1.442990941871049</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.418284747441788</v>
@@ -10670,7 +10472,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.459032937638439</v>
+        <v>1.424745160627756</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.202400357377535</v>
@@ -10759,7 +10561,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.480010787917751</v>
+        <v>1.444400876280389</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.396699380641333</v>
@@ -10848,7 +10650,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.482234925681032</v>
+        <v>1.448117392940387</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.343844629937192</v>
@@ -10937,7 +10739,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.495308675039102</v>
+        <v>1.459415671071473</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.317026149247658</v>
@@ -11026,7 +10828,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.463772334570668</v>
+        <v>1.43364332791422</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.319536724868331</v>
@@ -11115,7 +10917,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.474950882472758</v>
+        <v>1.441484214768614</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.333470815617035</v>
@@ -11204,7 +11006,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.512707779437788</v>
+        <v>1.471296092125206</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.324029782993402</v>
@@ -11293,7 +11095,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.515397421065358</v>
+        <v>1.471527758511398</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.356937752070389</v>
@@ -11382,7 +11184,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.487637840241082</v>
+        <v>1.452095747376447</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.303609680585101</v>
@@ -11471,7 +11273,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.49879688236202</v>
+        <v>1.469241225461311</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.291250507453289</v>
@@ -11560,7 +11362,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.530312436471709</v>
+        <v>1.493987832350801</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.177590496158006</v>
@@ -11649,7 +11451,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.514493353002728</v>
+        <v>1.475343427762776</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.481045032657395</v>
@@ -11738,7 +11540,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.500797763843861</v>
+        <v>1.468236209270218</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.362933354919074</v>
@@ -11827,7 +11629,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.492075043556933</v>
+        <v>1.458670354438641</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.434308878793308</v>
@@ -11916,7 +11718,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.491802202703689</v>
+        <v>1.459957594294438</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.291771063476721</v>
@@ -12005,7 +11807,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.513348395074177</v>
+        <v>1.482368744435133</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.172226102886469</v>
@@ -12094,7 +11896,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.47716068875118</v>
+        <v>1.450213014085258</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.498167398095101</v>
@@ -12183,7 +11985,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.473563225430426</v>
+        <v>1.448622632291915</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.480987888025346</v>
@@ -12272,7 +12074,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.478349084270925</v>
+        <v>1.44761261188383</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.300462408785281</v>
@@ -12361,7 +12163,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.487638265113919</v>
+        <v>1.453915151949422</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.336946521667545</v>
@@ -12450,7 +12252,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.487772365573717</v>
+        <v>1.455655182495295</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.268512705187051</v>
@@ -12539,7 +12341,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.476077889736384</v>
+        <v>1.449205318385613</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.39773352833414</v>
@@ -12628,7 +12430,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.471586050071707</v>
+        <v>1.443884752718437</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.356659638812091</v>
@@ -12717,7 +12519,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.466511490193616</v>
+        <v>1.441390402898526</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.397099452439665</v>
@@ -12806,7 +12608,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.463272785719984</v>
+        <v>1.435379374766692</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.272784190937716</v>
@@ -12895,7 +12697,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.461707846227117</v>
+        <v>1.435330504098797</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.302013541391102</v>
@@ -12984,7 +12786,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.490932002223952</v>
+        <v>1.461121671575432</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.194294806343715</v>
@@ -13073,7 +12875,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.502189462985452</v>
+        <v>1.474912856692534</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.347319098946035</v>
@@ -13162,7 +12964,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.473764919358522</v>
+        <v>1.454695946734924</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.420378068608011</v>
@@ -13251,7 +13053,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.470651793287929</v>
+        <v>1.449858776137833</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.341717618643738</v>
@@ -13340,7 +13142,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.473264609500259</v>
+        <v>1.452885952678225</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.20200170747585</v>
@@ -13429,7 +13231,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.508405730709546</v>
+        <v>1.480158438644518</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.205773279727328</v>
@@ -13518,7 +13320,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.497047536158086</v>
+        <v>1.468892961804363</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.524286601898733</v>
@@ -13607,7 +13409,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.466018434669206</v>
+        <v>1.4442599081577</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.3558175606854</v>
@@ -13696,7 +13498,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.471708025478779</v>
+        <v>1.447040457934919</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.472763619603374</v>
@@ -13785,7 +13587,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.452789343566341</v>
+        <v>1.432245996528637</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.460033402239428</v>
@@ -13874,7 +13676,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.457997398421881</v>
+        <v>1.435755739131745</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.430226157455486</v>
@@ -13963,7 +13765,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.459022415752193</v>
+        <v>1.436691763209084</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.218235046115496</v>
@@ -14052,7 +13854,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.476156409889959</v>
+        <v>1.441243769137326</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.363584143014984</v>
@@ -14141,7 +13943,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.452212964576564</v>
+        <v>1.425664130580325</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.425303507213616</v>
@@ -14230,7 +14032,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.453745089022396</v>
+        <v>1.427646420929557</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.538545305113186</v>
@@ -14319,7 +14121,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.456346187604356</v>
+        <v>1.429261456838929</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.448236920101262</v>
@@ -14408,7 +14210,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.447563142240302</v>
+        <v>1.420049852447419</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.552488447952132</v>
@@ -14497,7 +14299,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.44597675156686</v>
+        <v>1.414093281098917</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.355849299347151</v>
@@ -14586,7 +14388,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.436226944625864</v>
+        <v>1.407424866277885</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.387691711820115</v>
@@ -14675,7 +14477,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.421659677610657</v>
+        <v>1.389573066966822</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.327090486023968</v>
@@ -14764,7 +14566,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.398626433206435</v>
+        <v>1.374488322999928</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.401386038631182</v>
@@ -14853,7 +14655,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.405191357424813</v>
+        <v>1.378170628805923</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.08773608389422</v>
@@ -14942,7 +14744,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.405258754708259</v>
+        <v>1.375932484076172</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.384513409690915</v>
@@ -15031,7 +14833,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.406196533091614</v>
+        <v>1.377583201049988</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.300440554124209</v>
@@ -15317,7 +15119,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.490887444628273</v>
+        <v>1.485230762288941</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.397895001783076</v>
@@ -15406,7 +15208,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.484418966481636</v>
+        <v>1.446301731976606</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.976532851035402</v>
@@ -15495,7 +15297,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.455559495057329</v>
+        <v>1.440987874204447</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.024583283872134</v>
@@ -15584,7 +15386,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.466898141932145</v>
+        <v>1.449183572397568</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.029444431026018</v>
@@ -15673,7 +15475,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.462726884271649</v>
+        <v>1.439376869249345</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.047401797706972</v>
@@ -15762,7 +15564,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.466132168815383</v>
+        <v>1.445674162744452</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.028409412197569</v>
@@ -15851,7 +15653,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.450078270811989</v>
+        <v>1.429805861668263</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.016904689293183</v>
@@ -15940,7 +15742,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.447763519798116</v>
+        <v>1.428164533832368</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.02228927021632</v>
@@ -16029,7 +15831,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.444362785753916</v>
+        <v>1.42270928778604</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.001964272388495</v>
@@ -16118,7 +15920,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.441816857448782</v>
+        <v>1.421823514469795</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.997823221819312</v>
@@ -16207,7 +16009,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.463947076717133</v>
+        <v>1.435283774281126</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.991007610140116</v>
@@ -16296,7 +16098,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.450767585206431</v>
+        <v>1.423006943904052</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.987919026674378</v>
@@ -16385,7 +16187,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.447160065056224</v>
+        <v>1.414979011215255</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.984931721695623</v>
@@ -16474,7 +16276,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.470010917704061</v>
+        <v>1.433919047133075</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.967505022191186</v>
@@ -16563,7 +16365,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.484732830896897</v>
+        <v>1.452145121161772</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.879901910230126</v>
@@ -16652,7 +16454,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.483517318554129</v>
+        <v>1.446742864394209</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.952818181330852</v>
@@ -16741,7 +16543,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.531598643990052</v>
+        <v>1.488310406824258</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.143912251412429</v>
@@ -16830,7 +16632,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.496842391930836</v>
+        <v>1.462618546865907</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.443538524831233</v>
@@ -16919,7 +16721,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.478959847809398</v>
+        <v>1.449363535492591</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.293344279138137</v>
@@ -17008,7 +16810,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.480256267833607</v>
+        <v>1.445646156602187</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.359351526881516</v>
@@ -17097,7 +16899,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.470841162381075</v>
+        <v>1.437275696496403</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.311265298513465</v>
@@ -17186,7 +16988,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.460599106006107</v>
+        <v>1.431195746297885</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.279138199548912</v>
@@ -17275,7 +17077,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.445652129594501</v>
+        <v>1.412134496339533</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.326054641167001</v>
@@ -17364,7 +17166,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.422765054486314</v>
+        <v>1.398921156297593</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.273327819143764</v>
@@ -17453,7 +17255,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.421835019106124</v>
+        <v>1.397091360674237</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.4522779244064</v>
@@ -17542,7 +17344,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.426516421945165</v>
+        <v>1.402815107994726</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.349269118138041</v>
@@ -17631,7 +17433,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.431529242445509</v>
+        <v>1.408211253494003</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.387667287516023</v>
@@ -17720,7 +17522,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.427577437821769</v>
+        <v>1.409791002139309</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.41398980617435</v>
@@ -17809,7 +17611,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.421729428893737</v>
+        <v>1.404467481487639</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.429836263803105</v>
@@ -17898,7 +17700,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.391502884618457</v>
+        <v>1.374719122528936</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.468325891961161</v>
@@ -17987,7 +17789,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.391276856963616</v>
+        <v>1.377613524652814</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.467376620883611</v>
@@ -18076,7 +17878,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.385145634958812</v>
+        <v>1.372292446069383</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.384817805038027</v>
@@ -18165,7 +17967,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.387456360030972</v>
+        <v>1.374923869477527</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.431539388484344</v>
@@ -18254,7 +18056,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.392449119460161</v>
+        <v>1.378271119786091</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.509178173472021</v>
@@ -18343,7 +18145,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.394811701738463</v>
+        <v>1.386669088517493</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.599523691830016</v>
@@ -18432,7 +18234,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.401184210732132</v>
+        <v>1.391433984247816</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.459672221991795</v>
@@ -18521,7 +18323,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.408190315752839</v>
+        <v>1.390748892466384</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.454191613950338</v>
@@ -18610,7 +18412,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.418106184255148</v>
+        <v>1.403200155923318</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.164963039046744</v>
@@ -18699,7 +18501,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.433556731945586</v>
+        <v>1.420507762000433</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.750878692196104</v>
@@ -18788,7 +18590,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.430824048886303</v>
+        <v>1.416601126487755</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.707517823342108</v>
@@ -18877,7 +18679,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.420065692422131</v>
+        <v>1.408916497057263</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.699716666669097</v>
@@ -18966,7 +18768,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.418407140652592</v>
+        <v>1.405011264014093</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.521501880342176</v>
@@ -19055,7 +18857,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.404232559103622</v>
+        <v>1.388722492325825</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.604067708965426</v>
@@ -19144,7 +18946,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.415748782509542</v>
+        <v>1.400567515273448</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.322709742253776</v>
@@ -19233,7 +19035,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.434090671716404</v>
+        <v>1.413263016853119</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.692831987665791</v>
@@ -19322,7 +19124,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.428306724581963</v>
+        <v>1.405843128183268</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.562139250819528</v>
@@ -19411,7 +19213,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.432312770433575</v>
+        <v>1.411199601569488</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.492606945967462</v>
@@ -19500,7 +19302,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.446846123052071</v>
+        <v>1.425683409263715</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.479684830932384</v>
@@ -19589,7 +19391,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.432071158439368</v>
+        <v>1.41160348473878</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.513465758821229</v>
@@ -19678,7 +19480,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.415046436592622</v>
+        <v>1.397035816421822</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.610676600649505</v>
@@ -19767,7 +19569,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.422379422684592</v>
+        <v>1.404616390393742</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.53145363484713</v>
@@ -19856,7 +19658,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.435651794431569</v>
+        <v>1.419337056130191</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.434730209470712</v>
@@ -19945,7 +19747,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.449696713221695</v>
+        <v>1.42931257081107</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.533386955983635</v>
@@ -20034,7 +19836,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.443075270617014</v>
+        <v>1.42152968279578</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.553212630268462</v>
@@ -20123,7 +19925,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.444141418476383</v>
+        <v>1.423088981775706</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.572657479456128</v>
@@ -20212,7 +20014,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.443407804296207</v>
+        <v>1.416684816797703</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.48662885768777</v>
@@ -20301,7 +20103,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.4468195255406</v>
+        <v>1.422707680519085</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.506198891435732</v>
@@ -20390,7 +20192,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.464911527201716</v>
+        <v>1.441622897302017</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.58101979911316</v>
@@ -20479,7 +20281,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.448076295777475</v>
+        <v>1.426546778510435</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.540903264399692</v>
@@ -20568,7 +20370,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.450439486423984</v>
+        <v>1.430391250590846</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.458233017380503</v>
@@ -20657,7 +20459,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.476607189892033</v>
+        <v>1.458531458835072</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.529429764196868</v>
@@ -20746,7 +20548,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.491285279845622</v>
+        <v>1.473654189097906</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.51314383048197</v>
@@ -20835,7 +20637,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.49863238565965</v>
+        <v>1.478868130635985</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.755254740402927</v>
@@ -20924,7 +20726,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.517332875400585</v>
+        <v>1.494893671983961</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.50290727896112</v>
@@ -21013,7 +20815,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.531234101625178</v>
+        <v>1.505764518698079</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.870053012908271</v>
@@ -21102,7 +20904,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.534179966545099</v>
+        <v>1.510325137595341</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.937631572141994</v>
@@ -21191,7 +20993,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.539479651007719</v>
+        <v>1.51300630413133</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.933613995349877</v>
@@ -21280,7 +21082,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.541999471965261</v>
+        <v>1.513630244277642</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.896472194527667</v>
@@ -21369,7 +21171,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.53331893086435</v>
+        <v>1.509935145977248</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.772206806570891</v>
@@ -21458,7 +21260,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.527111503654321</v>
+        <v>1.502193620231009</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.868953222457636</v>
@@ -21547,7 +21349,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.528482531785941</v>
+        <v>1.50398833885101</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.86090761747014</v>
@@ -21636,7 +21438,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.528070558733297</v>
+        <v>1.507483687380242</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.908044509708321</v>
@@ -21725,7 +21527,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.521877558317515</v>
+        <v>1.505960836040961</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.85879890391523</v>
@@ -21814,7 +21616,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.530981508642713</v>
+        <v>1.511538073856562</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.727172607759342</v>
@@ -21903,7 +21705,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.513817412295862</v>
+        <v>1.496272897535673</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.633744693669199</v>
@@ -21992,7 +21794,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.504464856711268</v>
+        <v>1.478129041204064</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.445542007742783</v>
@@ -22278,7 +22080,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.565444505522319</v>
+        <v>1.515491305328277</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.061322764534909</v>
@@ -22367,7 +22169,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.562511381506468</v>
+        <v>1.499921381574035</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.053470731994057</v>
@@ -22456,7 +22258,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.54895517418128</v>
+        <v>1.5016893835195</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.066324772469965</v>
@@ -22545,7 +22347,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.548872218321744</v>
+        <v>1.500207141102166</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.155326864697917</v>
@@ -22634,7 +22436,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.545303072200676</v>
+        <v>1.491399819357674</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.131693332655967</v>
@@ -22723,7 +22525,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.541479789214467</v>
+        <v>1.488931930365707</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.121857747406037</v>
@@ -22812,7 +22614,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.527355653421854</v>
+        <v>1.476790408864928</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.119444094118146</v>
@@ -22901,7 +22703,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.52384487345974</v>
+        <v>1.474245891691493</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.213182563634142</v>
@@ -22990,7 +22792,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.520379961204844</v>
+        <v>1.476298170213167</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.155246817239451</v>
@@ -23079,7 +22881,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.522667283547959</v>
+        <v>1.478536656593894</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.217253671249021</v>
@@ -23168,7 +22970,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.526382165879436</v>
+        <v>1.482141445381023</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.065675154352483</v>
@@ -23257,7 +23059,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.519000379569483</v>
+        <v>1.470357945985046</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.193861704142359</v>
@@ -23346,7 +23148,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.527405482746511</v>
+        <v>1.480410842534891</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.213148906784736</v>
@@ -23435,7 +23237,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.526790847294341</v>
+        <v>1.48243401764165</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.208039686044974</v>
@@ -23524,7 +23326,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.538810636832699</v>
+        <v>1.493533104222875</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.108479965276343</v>
@@ -23613,7 +23415,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.531423761979751</v>
+        <v>1.485428306823255</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.09301892756282</v>
@@ -23702,7 +23504,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.559923073363692</v>
+        <v>1.513913281761648</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.619562303509587</v>
@@ -23791,7 +23593,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.541800028259697</v>
+        <v>1.495450543020896</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.83939801376295</v>
@@ -23880,7 +23682,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.539766746462789</v>
+        <v>1.496848836837484</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.092381284991418</v>
@@ -23969,7 +23771,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.543452861901744</v>
+        <v>1.50268439137987</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.861349870005575</v>
@@ -24058,7 +23860,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.54621434545059</v>
+        <v>1.505630118617286</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.061351205726989</v>
@@ -24147,7 +23949,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.557195675381695</v>
+        <v>1.509622796310906</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.784637433822978</v>
@@ -24236,7 +24038,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.562049827762436</v>
+        <v>1.514170093675829</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.979358675576507</v>
@@ -24325,7 +24127,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.555466104788179</v>
+        <v>1.510722895778796</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.861119168172452</v>
@@ -24414,7 +24216,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.573568970166592</v>
+        <v>1.522631914085909</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.965177295992553</v>
@@ -24503,7 +24305,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.574974613256827</v>
+        <v>1.525546910878207</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.966444752112853</v>
@@ -24592,7 +24394,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.558771692354167</v>
+        <v>1.519863160610553</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.845323179118312</v>
@@ -24681,7 +24483,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.5697510895438</v>
+        <v>1.527485185749732</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.882391224164438</v>
@@ -24770,7 +24572,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.561789244992202</v>
+        <v>1.518155839291426</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.819401387589766</v>
@@ -24859,7 +24661,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.56232678719382</v>
+        <v>1.517292699092534</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.753492323428482</v>
@@ -24948,7 +24750,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.554842377679486</v>
+        <v>1.516165511011284</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.100162098939046</v>
@@ -25037,7 +24839,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.558991137199066</v>
+        <v>1.513197294167814</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.650232520909911</v>
@@ -25126,7 +24928,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.581845442357655</v>
+        <v>1.528059653948431</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.594610425816157</v>
@@ -25215,7 +25017,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.586043240411649</v>
+        <v>1.528049902196583</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.164011515011118</v>
@@ -25304,7 +25106,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.581620702289763</v>
+        <v>1.526865824900894</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.797028005231679</v>
@@ -25393,7 +25195,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.583040556805753</v>
+        <v>1.519935669507661</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.947063014985349</v>
@@ -25482,7 +25284,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.591797613971826</v>
+        <v>1.525356146682076</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.051002476727802</v>
@@ -25571,7 +25373,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.579634439927004</v>
+        <v>1.514682933871686</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.752212757858426</v>
@@ -25660,7 +25462,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.582814329168629</v>
+        <v>1.518129825414099</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.859601322326237</v>
@@ -25749,7 +25551,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.574488327103059</v>
+        <v>1.509115999267402</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.052031479909359</v>
@@ -25838,7 +25640,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.579760440026949</v>
+        <v>1.506939605142453</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.620501898659453</v>
@@ -25927,7 +25729,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.585767269457933</v>
+        <v>1.503920599629945</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.621884222106729</v>
@@ -26016,7 +25818,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.574631964177325</v>
+        <v>1.494536226389259</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.937671683818771</v>
@@ -26105,7 +25907,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.585350838013557</v>
+        <v>1.507744985317206</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.730952338413385</v>
@@ -26194,7 +25996,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.589949869692962</v>
+        <v>1.511747462953311</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.099897440332233</v>
@@ -26283,7 +26085,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.602099083529144</v>
+        <v>1.521003685760729</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.589670006414254</v>
@@ -26372,7 +26174,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.594276662607558</v>
+        <v>1.516426825279773</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.62022618748255</v>
@@ -26461,7 +26263,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.57919344161215</v>
+        <v>1.509058571266029</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.865763387456062</v>
@@ -26550,7 +26352,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.579367316477353</v>
+        <v>1.5153061040994</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.977596447074318</v>
@@ -26639,7 +26441,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.570172739702331</v>
+        <v>1.506108900111345</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.916477113086473</v>
@@ -26728,7 +26530,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.564116771947455</v>
+        <v>1.509330260972115</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.665142761787148</v>
@@ -26817,7 +26619,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.555152246941796</v>
+        <v>1.506795179268518</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.848017398233821</v>
@@ -26906,7 +26708,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.569973491356054</v>
+        <v>1.514536147534497</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.857461349779852</v>
@@ -26995,7 +26797,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.563668755426563</v>
+        <v>1.50593005933108</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.023189005769145</v>
@@ -27084,7 +26886,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.559819340817029</v>
+        <v>1.505351434403306</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.002130534540197</v>
@@ -27173,7 +26975,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.560450319634771</v>
+        <v>1.504156860339239</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.001276158285071</v>
@@ -27262,7 +27064,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.561519336843806</v>
+        <v>1.510209476821051</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.747425530239314</v>
@@ -27351,7 +27153,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.567353235367197</v>
+        <v>1.513537474629067</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.11203231853599</v>
@@ -27440,7 +27242,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.565981647350078</v>
+        <v>1.51348962481523</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.78362771063407</v>
@@ -27529,7 +27331,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.551626343882323</v>
+        <v>1.505818597786527</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.922604496103922</v>
@@ -27618,7 +27420,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.540296657452415</v>
+        <v>1.49793248324482</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.724230281822152</v>
@@ -27707,7 +27509,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.531208302912409</v>
+        <v>1.490120272533702</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.804569949014324</v>
@@ -27796,7 +27598,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.538504671213767</v>
+        <v>1.494202395899751</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.797160570102821</v>
@@ -27885,7 +27687,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.539531826187543</v>
+        <v>1.488441453120044</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.652355260053787</v>
@@ -27974,7 +27776,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.562264610248896</v>
+        <v>1.505074801260052</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.697257949211532</v>
@@ -28063,7 +27865,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.553862824411069</v>
+        <v>1.502367179027179</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.00424065400251</v>
@@ -28152,7 +27954,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.556249026347416</v>
+        <v>1.505250383251751</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.912644672443213</v>
@@ -28241,7 +28043,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.558754533318257</v>
+        <v>1.505414933122831</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.966656357195673</v>
@@ -28330,7 +28132,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.545248184849612</v>
+        <v>1.503128138122289</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.929457349963671</v>
@@ -28419,7 +28221,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.535679498547738</v>
+        <v>1.497012766367035</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.741942999941263</v>
@@ -28508,7 +28310,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.527149741998074</v>
+        <v>1.49135184564118</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.774595858147086</v>
@@ -28597,7 +28399,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.5156036630797</v>
+        <v>1.480982113248266</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.6969779648736</v>
@@ -28686,7 +28488,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.512121029429131</v>
+        <v>1.482210518453021</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.734153932313519</v>
@@ -28775,7 +28577,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.501991517270927</v>
+        <v>1.469139268869617</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.594148074029605</v>
@@ -28864,7 +28666,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.505622725706836</v>
+        <v>1.466964960812885</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.817800180032105</v>
@@ -28953,7 +28755,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.518270767697838</v>
+        <v>1.467902810078158</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.601591450299705</v>
@@ -29239,7 +29041,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.536200842791817</v>
+        <v>1.489005766927784</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.1885264803086</v>
@@ -29328,7 +29130,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.527785133357038</v>
+        <v>1.457085830485694</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.992409772281644</v>
@@ -29417,7 +29219,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.472006253157808</v>
+        <v>1.431594628894014</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.997834938147587</v>
@@ -29506,7 +29308,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.468246745699201</v>
+        <v>1.425535227584211</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.01001318098468</v>
@@ -29595,7 +29397,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.463639694005681</v>
+        <v>1.418383650543845</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.989684026210145</v>
@@ -29684,7 +29486,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.471898846699586</v>
+        <v>1.420916446407083</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.975203067809515</v>
@@ -29773,7 +29575,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.480408849324565</v>
+        <v>1.427408856319589</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.001202902023759</v>
@@ -29862,7 +29664,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.477891112489892</v>
+        <v>1.425698135754923</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.008027874275278</v>
@@ -29951,7 +29753,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.479166409173658</v>
+        <v>1.42197913061119</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.999249286578196</v>
@@ -30040,7 +29842,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.477916587662308</v>
+        <v>1.422072754621043</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.969374278859706</v>
@@ -30129,7 +29931,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.478938998004668</v>
+        <v>1.42691553741932</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.972402473705113</v>
@@ -30218,7 +30020,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.484934288583059</v>
+        <v>1.432723651351421</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.990257342853472</v>
@@ -30307,7 +30109,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.489006545417542</v>
+        <v>1.436315717205143</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.962166639785077</v>
@@ -30396,7 +30198,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.492619844073253</v>
+        <v>1.442726420373289</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.987896846391339</v>
@@ -30485,7 +30287,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.498161964280427</v>
+        <v>1.452296063259918</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.943708590736304</v>
@@ -30574,7 +30376,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.486195923037699</v>
+        <v>1.443735330704131</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.999761594645235</v>
@@ -30663,7 +30465,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.544607776303632</v>
+        <v>1.491129220270461</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.195543339493208</v>
@@ -30752,7 +30554,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.564231939408131</v>
+        <v>1.504349420175703</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.46124762552631</v>
@@ -30841,7 +30643,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.5635462319263</v>
+        <v>1.503437284369444</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.24936537985377</v>
@@ -30930,7 +30732,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.561981380489714</v>
+        <v>1.502017079341011</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.163762623133744</v>
@@ -31019,7 +30821,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.566791992717993</v>
+        <v>1.506779045419476</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.526486731024236</v>
@@ -31108,7 +30910,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.551971819777444</v>
+        <v>1.49020194559167</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.578227934550836</v>
@@ -31197,7 +30999,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.556172782973805</v>
+        <v>1.497298209932833</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.13536621606694</v>
@@ -31286,7 +31088,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.545838688729151</v>
+        <v>1.48955611299288</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.952496782695199</v>
@@ -31375,7 +31177,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.550136107320229</v>
+        <v>1.496852707210715</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.065098392679224</v>
@@ -31464,7 +31266,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.547471851510041</v>
+        <v>1.491509412745617</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.090145743471223</v>
@@ -31553,7 +31355,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.54038670202355</v>
+        <v>1.490189080668586</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.441025747963404</v>
@@ -31642,7 +31444,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.535029914991088</v>
+        <v>1.488693602563467</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.359514518624278</v>
@@ -31731,7 +31533,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.531687495189017</v>
+        <v>1.483345613340503</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.775376309517017</v>
@@ -31820,7 +31622,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.535676891287798</v>
+        <v>1.484729443699437</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.249444044602233</v>
@@ -31909,7 +31711,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.537716498575552</v>
+        <v>1.480999457308841</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.362454239923254</v>
@@ -31998,7 +31800,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.53623774196554</v>
+        <v>1.477902954020758</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.295681648562045</v>
@@ -32087,7 +31889,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.540222659695129</v>
+        <v>1.48879061292272</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.035025666972734</v>
@@ -32176,7 +31978,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.54688757523162</v>
+        <v>1.49100141183511</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.656795358689311</v>
@@ -32265,7 +32067,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.552149243563595</v>
+        <v>1.498977884103122</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.596861323272553</v>
@@ -32354,7 +32156,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.54530433907132</v>
+        <v>1.490667061092937</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.713259944556583</v>
@@ -32443,7 +32245,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.556887163807956</v>
+        <v>1.50005266193178</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.777223170834859</v>
@@ -32532,7 +32334,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.557570780172268</v>
+        <v>1.497665145329268</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.387132337008554</v>
@@ -32621,7 +32423,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.562353310248556</v>
+        <v>1.504287452964654</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.232189459465221</v>
@@ -32710,7 +32512,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.560858169417456</v>
+        <v>1.498389824581338</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.452737656732131</v>
@@ -32799,7 +32601,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.555439396397629</v>
+        <v>1.491442343265516</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.389591524127467</v>
@@ -32888,7 +32690,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.562504014621347</v>
+        <v>1.498416159425142</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.144857968243513</v>
@@ -32977,7 +32779,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.551373657111767</v>
+        <v>1.487844268969472</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.165823734298699</v>
@@ -33066,7 +32868,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.549919735815785</v>
+        <v>1.484086381585136</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.035274512713827</v>
@@ -33155,7 +32957,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.556534206453891</v>
+        <v>1.493251262064633</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.953479878381013</v>
@@ -33244,7 +33046,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.561569608192315</v>
+        <v>1.504784434531042</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.927706562812192</v>
@@ -33333,7 +33135,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.569053015502711</v>
+        <v>1.514806695551072</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.040597036209293</v>
@@ -33422,7 +33224,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.566635591233118</v>
+        <v>1.509254013851625</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.981679184073622</v>
@@ -33511,7 +33313,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.554067322739854</v>
+        <v>1.50259287802079</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.987904810027478</v>
@@ -33600,7 +33402,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.559830482907409</v>
+        <v>1.505557944821521</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.848344541151111</v>
@@ -33689,7 +33491,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.562394223096675</v>
+        <v>1.508378103500722</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.012805734785612</v>
@@ -33778,7 +33580,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.559256581963771</v>
+        <v>1.500989757076192</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.824562478750683</v>
@@ -33867,7 +33669,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.550885950379178</v>
+        <v>1.499189203732052</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.161733860921891</v>
@@ -33956,7 +33758,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.559132779551481</v>
+        <v>1.506673910859015</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.286378703715573</v>
@@ -34045,7 +33847,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.561085472740042</v>
+        <v>1.508465193336797</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.179114519413471</v>
@@ -34134,7 +33936,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.557089580643553</v>
+        <v>1.507975635091539</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.91076604322951</v>
@@ -34223,7 +34025,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.561526426431303</v>
+        <v>1.510796137445233</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.016251837619103</v>
@@ -34312,7 +34114,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.566211798690092</v>
+        <v>1.515104987268669</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.301467343815891</v>
@@ -34401,7 +34203,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.582005504815164</v>
+        <v>1.534788353659366</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.308402046099637</v>
@@ -34490,7 +34292,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.572844207296739</v>
+        <v>1.523786610312301</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.262575600609037</v>
@@ -34579,7 +34381,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.565986749158148</v>
+        <v>1.51733329781203</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.280505809089374</v>
@@ -34668,7 +34470,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.559097369608065</v>
+        <v>1.50755249574749</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.091912597268095</v>
@@ -34757,7 +34559,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.554877601541834</v>
+        <v>1.504759772877801</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.997153826702101</v>
@@ -34846,7 +34648,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.557835002159274</v>
+        <v>1.508474951335552</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.360327260726508</v>
@@ -34935,7 +34737,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.568552508295918</v>
+        <v>1.524049772430121</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.216889243040282</v>
@@ -35024,7 +34826,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.560382216887776</v>
+        <v>1.517872686204001</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.937962677780964</v>
@@ -35113,7 +34915,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.570430541791356</v>
+        <v>1.532381091427025</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.695561731365055</v>
@@ -35202,7 +35004,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.576612258610774</v>
+        <v>1.535895705936148</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.156864258852962</v>
@@ -35291,7 +35093,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.563440219978337</v>
+        <v>1.525394864982734</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.076672413813409</v>
@@ -35380,7 +35182,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.555453699536497</v>
+        <v>1.516633028357763</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.930969172975218</v>
@@ -35469,7 +35271,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.556622357429778</v>
+        <v>1.520136775049366</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.926141143357619</v>
@@ -35558,7 +35360,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.544590587138328</v>
+        <v>1.511741573038137</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.992483841209998</v>
@@ -35647,7 +35449,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.547291438202274</v>
+        <v>1.514471212351211</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.143229537618943</v>
@@ -35736,7 +35538,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.530461862796336</v>
+        <v>1.497915590179995</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.743035113515359</v>
@@ -35825,7 +35627,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.521714971163768</v>
+        <v>1.486882151261433</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.558152411984625</v>
@@ -35914,7 +35716,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.510524721881119</v>
+        <v>1.476567543739747</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.351116028803126</v>
@@ -36200,7 +36002,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.651018477554504</v>
+        <v>1.642939161836596</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.929169099976698</v>
@@ -36289,7 +36091,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.633732773031354</v>
+        <v>1.605448580401709</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.346165797801555</v>
@@ -36378,7 +36180,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.604515708776656</v>
+        <v>1.594742385113155</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.269325077275401</v>
@@ -36467,7 +36269,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.599710814255094</v>
+        <v>1.594325088249003</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.283359568111222</v>
@@ -36556,7 +36358,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.596686157281613</v>
+        <v>1.590279124218309</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.296663277156866</v>
@@ -36645,7 +36447,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.594758986767673</v>
+        <v>1.591348296691609</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.224517777483924</v>
@@ -36734,7 +36536,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.593397536522969</v>
+        <v>1.588018286966527</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.35068863724699</v>
@@ -36823,7 +36625,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.59162207292761</v>
+        <v>1.58307262165999</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.295137868924457</v>
@@ -36912,7 +36714,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.594468625890997</v>
+        <v>1.584281109601003</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.294838874954503</v>
@@ -37001,7 +36803,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.5966518992999</v>
+        <v>1.590686061126556</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.343203231488717</v>
@@ -37090,7 +36892,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.589635233423071</v>
+        <v>1.578319906433532</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.342910070526402</v>
@@ -37179,7 +36981,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.59214295412037</v>
+        <v>1.57873028088692</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.345409547351949</v>
@@ -37268,7 +37070,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.593874393985255</v>
+        <v>1.581040283707884</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.202333637684038</v>
@@ -37357,7 +37159,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.597272450903432</v>
+        <v>1.582174705656271</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.266775729070446</v>
@@ -37446,7 +37248,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.615300086911644</v>
+        <v>1.595406261920858</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.248751940528661</v>
@@ -37535,7 +37337,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.627961701769187</v>
+        <v>1.605453183154986</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.234805987068366</v>
@@ -37624,7 +37426,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.666459699102371</v>
+        <v>1.641355900371485</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.639276996374161</v>
@@ -37713,7 +37515,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.652229331252987</v>
+        <v>1.621861632455316</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.077839101324916</v>
@@ -37802,7 +37604,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.651051709168488</v>
+        <v>1.620345139939328</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.869896787064928</v>
@@ -37891,7 +37693,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.646643250477563</v>
+        <v>1.612964014526831</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.987537815291863</v>
@@ -37980,7 +37782,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.629079211148229</v>
+        <v>1.595271127688006</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.013214779044692</v>
@@ -38069,7 +37871,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.621555798155819</v>
+        <v>1.590313564188701</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.045660949808489</v>
@@ -38158,7 +37960,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.610636605578893</v>
+        <v>1.586036681803096</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.949127692100459</v>
@@ -38247,7 +38049,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.610003672362417</v>
+        <v>1.587299153561986</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.905155142313156</v>
@@ -38336,7 +38138,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.614597110121331</v>
+        <v>1.589210210648337</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.792505346257692</v>
@@ -38425,7 +38227,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.621119124787219</v>
+        <v>1.602281880067687</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.990106676614002</v>
@@ -38514,7 +38316,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.607746230339841</v>
+        <v>1.587305852830442</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.894514963686742</v>
@@ -38603,7 +38405,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.608441286542184</v>
+        <v>1.590544580201643</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.98602099062659</v>
@@ -38692,7 +38494,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.607490333283678</v>
+        <v>1.587444712515398</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.938683699612676</v>
@@ -38781,7 +38583,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.608047462584846</v>
+        <v>1.588521223355301</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.995905255972755</v>
@@ -38870,7 +38672,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.598906512096729</v>
+        <v>1.575625761072294</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.61196294392652</v>
@@ -38959,7 +38761,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.594652294210367</v>
+        <v>1.582887858047082</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.001410841527036</v>
@@ -39048,7 +38850,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.59951792523198</v>
+        <v>1.589354746601201</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.838251752212193</v>
@@ -39137,7 +38939,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.600211218011425</v>
+        <v>1.585432539688459</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.010763442427921</v>
@@ -39226,7 +39028,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.593452198778102</v>
+        <v>1.582504625782809</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.919740154578944</v>
@@ -39315,7 +39117,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.596901130477964</v>
+        <v>1.585731379741962</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.4518410944754</v>
@@ -39404,7 +39206,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.606530460632032</v>
+        <v>1.589622925495149</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.138425858452388</v>
@@ -39493,7 +39295,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.614029851552482</v>
+        <v>1.591530014016228</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.10461817204148</v>
@@ -39582,7 +39384,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.609543837056963</v>
+        <v>1.58708411506923</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.480810900035034</v>
@@ -39671,7 +39473,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.60149677098375</v>
+        <v>1.58230192883932</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.332973057007119</v>
@@ -39760,7 +39562,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.584214342326309</v>
+        <v>1.564672197369628</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.433036746223661</v>
@@ -39849,7 +39651,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.580816677266616</v>
+        <v>1.564016521140646</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.494894761500109</v>
@@ -39938,7 +39740,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.564571051551118</v>
+        <v>1.547529067901709</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.260908032668065</v>
@@ -40027,7 +39829,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.565740192697223</v>
+        <v>1.547906601663741</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.258084174833527</v>
@@ -40116,7 +39918,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.567427653002639</v>
+        <v>1.546315851971098</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.177626433521695</v>
@@ -40205,7 +40007,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.56552246864539</v>
+        <v>1.548188851719384</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.312286045123688</v>
@@ -40294,7 +40096,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.559475596061283</v>
+        <v>1.534247242497947</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.98537440976148</v>
@@ -40383,7 +40185,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.554366047134659</v>
+        <v>1.527942965329919</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.157336201440573</v>
@@ -40472,7 +40274,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.546177952410548</v>
+        <v>1.52031187249667</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.794353833430993</v>
@@ -40561,7 +40363,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.544433441543063</v>
+        <v>1.517351677081615</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.705090231056812</v>
@@ -40650,7 +40452,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.553380005458404</v>
+        <v>1.522233692348139</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.853870363787961</v>
@@ -40739,7 +40541,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.550644842010024</v>
+        <v>1.523560282669445</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.793810150239821</v>
@@ -40828,7 +40630,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.540759996564963</v>
+        <v>1.513278906829001</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.998890749715084</v>
@@ -40917,7 +40719,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.546550981377703</v>
+        <v>1.517499237591951</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.89677888466339</v>
@@ -41006,7 +40808,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.551659296150555</v>
+        <v>1.517713010849239</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.991830188225625</v>
@@ -41095,7 +40897,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.553925096433014</v>
+        <v>1.517813568196866</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.81565487130297</v>
@@ -41184,7 +40986,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.571341270366906</v>
+        <v>1.532372607168957</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.712726868934839</v>
@@ -41273,7 +41075,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.579919636718004</v>
+        <v>1.543176202152672</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.790187905299508</v>
@@ -41362,7 +41164,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.579881179326178</v>
+        <v>1.5478692060914</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.891981986304689</v>
@@ -41451,7 +41253,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.574526375075707</v>
+        <v>1.547839291162595</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.778228970440004</v>
@@ -41540,7 +41342,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.57644178286313</v>
+        <v>1.543866958054543</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.801515023117309</v>
@@ -41629,7 +41431,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.580843062632036</v>
+        <v>1.547576191561934</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.499749292644184</v>
@@ -41718,7 +41520,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.591955700833644</v>
+        <v>1.558480983285395</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.744886931300917</v>
@@ -41807,7 +41609,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.604728470842254</v>
+        <v>1.570517095223525</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.906626436308856</v>
@@ -41896,7 +41698,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.610441404224328</v>
+        <v>1.580770001052825</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.868122243838602</v>
@@ -41985,7 +41787,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.613818679708836</v>
+        <v>1.585623175476967</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.67632014540464</v>
@@ -42074,7 +41876,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.613029248545276</v>
+        <v>1.58664386154309</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.599296637875256</v>
@@ -42163,7 +41965,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.618914081818587</v>
+        <v>1.593817508499821</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.786658269835071</v>
@@ -42252,7 +42054,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.608744443526954</v>
+        <v>1.582377656619171</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.694345313238238</v>
@@ -42341,7 +42143,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.615133335707799</v>
+        <v>1.58834361065573</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.682006510488812</v>
@@ -42430,7 +42232,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.617213374973327</v>
+        <v>1.589289316361008</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.653976710316147</v>
@@ -42519,7 +42321,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.601828062271299</v>
+        <v>1.57544800402122</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.656598957703261</v>
@@ -42608,7 +42410,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.588431725287548</v>
+        <v>1.56143594571064</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.68939699678934</v>
@@ -42697,7 +42499,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.57396319506912</v>
+        <v>1.545796129756812</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.687338243883182</v>
@@ -42786,7 +42588,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.562316207357219</v>
+        <v>1.536851484173704</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.832047347447398</v>
@@ -42875,7 +42677,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.54654899682547</v>
+        <v>1.521655979779962</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.733543433646931</v>
@@ -43161,7 +42963,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.38859142760238</v>
+        <v>1.380192217688402</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.258321101275881</v>
@@ -43250,7 +43052,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.381727602672392</v>
+        <v>1.349634899047581</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.976382591780554</v>
@@ -43339,7 +43141,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.367082677741194</v>
+        <v>1.358965680396852</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.958797193753825</v>
@@ -43428,7 +43230,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.371268232666342</v>
+        <v>1.363060010996298</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.003770011280827</v>
@@ -43517,7 +43319,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.367258350258084</v>
+        <v>1.354964324174447</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.010757149129144</v>
@@ -43606,7 +43408,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.360092280853154</v>
+        <v>1.355359990889854</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.01909213464431</v>
@@ -43695,7 +43497,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.355995727978555</v>
+        <v>1.345689626646078</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.02968360651858</v>
@@ -43784,7 +43586,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.337369767887629</v>
+        <v>1.328234358864609</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.056050486206786</v>
@@ -43873,7 +43675,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.33582063475371</v>
+        <v>1.326462916294674</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.041477671278809</v>
@@ -43962,7 +43764,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.335717393255332</v>
+        <v>1.327138589123167</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.850727555716543</v>
@@ -44051,7 +43853,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.335330964646966</v>
+        <v>1.328945724805696</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.048495261609649</v>
@@ -44140,7 +43942,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.323573655121713</v>
+        <v>1.320295506380046</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.027363404659672</v>
@@ -44229,7 +44031,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.333816730645671</v>
+        <v>1.330795891200086</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.915463547750188</v>
@@ -44318,7 +44120,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.341006117326883</v>
+        <v>1.335084653548332</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.9739766756581</v>
@@ -44407,7 +44209,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.374261634005363</v>
+        <v>1.360140663717175</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.906619571045461</v>
@@ -44496,7 +44298,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.362228508447834</v>
+        <v>1.347644543790032</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.018084956009911</v>
@@ -44585,7 +44387,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.397948719582381</v>
+        <v>1.383644101168076</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.089154813813727</v>
@@ -44674,7 +44476,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.38436949278014</v>
+        <v>1.365837019620746</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.277655767728993</v>
@@ -44763,7 +44565,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.37835133619993</v>
+        <v>1.361813779671005</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.235467759354362</v>
@@ -44852,7 +44654,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.398788634672983</v>
+        <v>1.380672148596701</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.130688737068091</v>
@@ -44941,7 +44743,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.399249862106039</v>
+        <v>1.381546258672597</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.361842474201717</v>
@@ -45030,7 +44832,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.392436003540406</v>
+        <v>1.37400479124227</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.084973074768822</v>
@@ -45119,7 +44921,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.387400892687426</v>
+        <v>1.376793268916287</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.238296446820221</v>
@@ -45208,7 +45010,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.375552979181587</v>
+        <v>1.365842921663672</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.326660172257583</v>
@@ -45297,7 +45099,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.40403639055826</v>
+        <v>1.389100779901393</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.363177076183439</v>
@@ -45386,7 +45188,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.414988184705943</v>
+        <v>1.395571600702183</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.330669573350422</v>
@@ -45475,7 +45277,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.401139969132409</v>
+        <v>1.378066630645589</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.059872239581785</v>
@@ -45564,7 +45366,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.418444592089926</v>
+        <v>1.401244435930896</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.294504048217674</v>
@@ -45653,7 +45455,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.414685731832356</v>
+        <v>1.399509653159315</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.405216448015285</v>
@@ -45742,7 +45544,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.41716592986884</v>
+        <v>1.403226749645063</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.197989932817115</v>
@@ -45831,7 +45633,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.385158000248443</v>
+        <v>1.372941705884841</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.26625654665231</v>
@@ -45920,7 +45722,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.39179374622042</v>
+        <v>1.378402220348188</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.204663503559241</v>
@@ -46009,7 +45811,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.410319034378369</v>
+        <v>1.400742403734055</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.1479920048798</v>
@@ -46098,7 +45900,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.420303653097481</v>
+        <v>1.405695905758659</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.288860952617595</v>
@@ -46187,7 +45989,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.399872799629659</v>
+        <v>1.389672146185054</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.155979955915811</v>
@@ -46276,7 +46078,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.404187147769627</v>
+        <v>1.38931455923324</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.186834026435359</v>
@@ -46365,7 +46167,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.438227042164219</v>
+        <v>1.408027515264389</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.09604341979287</v>
@@ -46454,7 +46256,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.424547867503606</v>
+        <v>1.389925293417846</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.198939663953192</v>
@@ -46543,7 +46345,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.412027049800124</v>
+        <v>1.387952233616579</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.256773060209954</v>
@@ -46632,7 +46434,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.411943430457697</v>
+        <v>1.390786961937762</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.187854387176039</v>
@@ -46721,7 +46523,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.41198741490698</v>
+        <v>1.396870979168288</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.197226949141307</v>
@@ -46810,7 +46612,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.436397017620842</v>
+        <v>1.420889450554488</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.117526355560413</v>
@@ -46899,7 +46701,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.40995439303266</v>
+        <v>1.393330326551563</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.265001836506831</v>
@@ -46988,7 +46790,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.404761411851312</v>
+        <v>1.389935366462894</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.264479014722155</v>
@@ -47077,7 +46879,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.425401290096113</v>
+        <v>1.408578266316452</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.15069074751398</v>
@@ -47166,7 +46968,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.448072849329631</v>
+        <v>1.435584925548227</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.206930280647239</v>
@@ -47255,7 +47057,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.439646580435028</v>
+        <v>1.42484651090179</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.134251963081457</v>
@@ -47344,7 +47146,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.443057444719711</v>
+        <v>1.423755111965918</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.233284281418401</v>
@@ -47433,7 +47235,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.441722289204219</v>
+        <v>1.420959271299681</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.290205464324912</v>
@@ -47522,7 +47324,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.426045251019479</v>
+        <v>1.410242101977294</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.319776105618403</v>
@@ -47611,7 +47413,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.427321167595697</v>
+        <v>1.414766453507147</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.187955257474258</v>
@@ -47700,7 +47502,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.425945141377113</v>
+        <v>1.41693327520929</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.238843729285295</v>
@@ -47789,7 +47591,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.466374657992259</v>
+        <v>1.451849717321215</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.061651597032823</v>
@@ -47878,7 +47680,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.472880374722581</v>
+        <v>1.457773720818513</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.224757526560994</v>
@@ -47967,7 +47769,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.436253776805415</v>
+        <v>1.421565750496063</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.215108392764211</v>
@@ -48056,7 +47858,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.441623975509085</v>
+        <v>1.416301624817748</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.249665323161813</v>
@@ -48145,7 +47947,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.444677123316867</v>
+        <v>1.417487978554337</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.148397206263627</v>
@@ -48234,7 +48036,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.482640978528886</v>
+        <v>1.449149557403641</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.090822157954531</v>
@@ -48323,7 +48125,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.486547179685949</v>
+        <v>1.450125485421253</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.252192669190164</v>
@@ -48412,7 +48214,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.44766221629366</v>
+        <v>1.417010974200825</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.228608202641686</v>
@@ -48501,7 +48303,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.447688971792856</v>
+        <v>1.412986921040933</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.214862416458282</v>
@@ -48590,7 +48392,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.454390985888829</v>
+        <v>1.41860028257474</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.380426865174535</v>
@@ -48679,7 +48481,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.450095242154121</v>
+        <v>1.417514997333914</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.217848599549023</v>
@@ -48768,7 +48570,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.455697485343907</v>
+        <v>1.419393534589295</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.047637150704708</v>
@@ -48857,7 +48659,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.493773971687281</v>
+        <v>1.439053060000521</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.104140130710723</v>
@@ -48946,7 +48748,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.458792041806585</v>
+        <v>1.42180589811588</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.156837413061628</v>
@@ -49035,7 +48837,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.467413884183268</v>
+        <v>1.431623424391683</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.279074271410426</v>
@@ -49124,7 +48926,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.46827468522465</v>
+        <v>1.432136966040932</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.160297071607721</v>
@@ -49213,7 +49015,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.463445547777292</v>
+        <v>1.428509354486317</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.188847973309002</v>
@@ -49302,7 +49104,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.464060670349904</v>
+        <v>1.425926324353687</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.217054432101496</v>
@@ -49391,7 +49193,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.45378979613429</v>
+        <v>1.423129216836659</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.242971223916353</v>
@@ -49480,7 +49282,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.424605221973944</v>
+        <v>1.393321535184195</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.245033092131175</v>
@@ -49569,7 +49371,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.410854084117599</v>
+        <v>1.386328130963356</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.248713911102182</v>
@@ -49658,7 +49460,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.408634075789037</v>
+        <v>1.384742440822104</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.011886261779055</v>
@@ -49747,7 +49549,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.414954116967456</v>
+        <v>1.393820042757619</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.367298040357012</v>
@@ -49836,7 +49638,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.420398900911439</v>
+        <v>1.399095839311586</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.237517492689946</v>
